--- a/rhla_analysis/rhla1_6_zipf_result/k10.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k10.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3584936887733167</v>
+        <v>0.3584936887733173</v>
       </c>
       <c r="B2" t="n">
         <v>35.40248547086048</v>
@@ -466,26 +466,26 @@
         <v>0.1072640868974881</v>
       </c>
       <c r="D2" t="n">
-        <v>98.75344135624722</v>
+        <v>98.75344135624707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8180697534608247</v>
+        <v>0.8180697534608232</v>
       </c>
       <c r="B3" t="n">
-        <v>90.29864325501515</v>
+        <v>90.29864325501516</v>
       </c>
       <c r="C3" t="n">
         <v>0.1069246435845214</v>
       </c>
       <c r="D3" t="n">
-        <v>110.3801269671796</v>
+        <v>110.3801269671798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5367008407750377</v>
+        <v>0.5367008407750398</v>
       </c>
       <c r="B4" t="n">
         <v>72.8983799525912</v>
@@ -494,12 +494,12 @@
         <v>0.1103190767141887</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8268413504258</v>
+        <v>135.8268413504253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4160340486005634</v>
+        <v>0.4160340486005638</v>
       </c>
       <c r="B5" t="n">
         <v>43.87815844681165</v>
@@ -513,21 +513,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.43749017457588</v>
+        <v>3.437490174575881</v>
       </c>
       <c r="B6" t="n">
-        <v>364.3903228529722</v>
+        <v>364.3903228529723</v>
       </c>
       <c r="C6" t="n">
         <v>0.1059063136456212</v>
       </c>
       <c r="D6" t="n">
-        <v>106.0047605511865</v>
+        <v>106.0047605511864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1740058521704116</v>
+        <v>0.1740058521704118</v>
       </c>
       <c r="B7" t="n">
         <v>20.173105447153</v>
@@ -536,12 +536,12 @@
         <v>0.1065852002715546</v>
       </c>
       <c r="D7" t="n">
-        <v>115.9334884173699</v>
+        <v>115.9334884173698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4128848073830851</v>
+        <v>0.4128848073830873</v>
       </c>
       <c r="B8" t="n">
         <v>34.5409197643523</v>
@@ -550,12 +550,12 @@
         <v>0.1021724372029871</v>
       </c>
       <c r="D8" t="n">
-        <v>83.65752177532738</v>
+        <v>83.65752177532694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3434913696834315</v>
+        <v>0.3434913696834297</v>
       </c>
       <c r="B9" t="n">
         <v>34.64101190130071</v>
@@ -564,26 +564,26 @@
         <v>0.1089613034623218</v>
       </c>
       <c r="D9" t="n">
-        <v>100.8497300331783</v>
+        <v>100.8497300331788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19.58170912148402</v>
+        <v>19.58170912148406</v>
       </c>
       <c r="B10" t="n">
-        <v>2411.077447521264</v>
+        <v>2411.077447521263</v>
       </c>
       <c r="C10" t="n">
         <v>0.09572301425661914</v>
       </c>
       <c r="D10" t="n">
-        <v>123.1290605208693</v>
+        <v>123.129060520869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6813554533441848</v>
+        <v>0.6813554533441827</v>
       </c>
       <c r="B11" t="n">
         <v>114.0851391169421</v>
@@ -592,7 +592,7 @@
         <v>0.1086218601493551</v>
       </c>
       <c r="D11" t="n">
-        <v>167.4385059325449</v>
+        <v>167.4385059325454</v>
       </c>
     </row>
   </sheetData>
